--- a/data/trans_camb/P2A_psíq_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_psíq_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.7685157197577841</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.2295473455475563</v>
+        <v>-0.2295473455475558</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.511199559191724</v>
@@ -664,7 +664,7 @@
         <v>0.9910562531499452</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.6939694481686054</v>
+        <v>0.6939694481686051</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1248283195391977</v>
+        <v>-0.05130570056172131</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.654589186603947</v>
+        <v>-1.647938338103609</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.380490189237928</v>
+        <v>-2.550544915199578</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3909038880004114</v>
+        <v>0.2462066962648361</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.5165362553418065</v>
+        <v>-0.5832610422213662</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.1745027758938606</v>
+        <v>-0.1934301706693535</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.864714682855813</v>
+        <v>0.6859540004926493</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.4566304701103452</v>
+        <v>-0.5585225511597749</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.7230341248502096</v>
+        <v>-0.8079172495240088</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.190057033186964</v>
+        <v>6.760109389309352</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.678880581729306</v>
+        <v>3.329628442167513</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.68062805159619</v>
+        <v>1.77017377813045</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.452785634383988</v>
+        <v>5.538381747109605</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.014273081077299</v>
+        <v>3.87019842985824</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.899901803065931</v>
+        <v>4.20126330281098</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.011579175628027</v>
+        <v>4.668968752345561</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.777314781421672</v>
+        <v>2.650449422423297</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.160304199571181</v>
+        <v>2.118234792568221</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.4650842344887016</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1389156379475832</v>
+        <v>-0.1389156379475829</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>3.07367633954573</v>
@@ -769,7 +769,7 @@
         <v>0.7965177903252894</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.5577473626261318</v>
+        <v>0.5577473626261316</v>
       </c>
     </row>
     <row r="8">
@@ -780,29 +780,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2297543142140867</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>-0.6858810917627238</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>-0.8500095635889486</v>
-      </c>
+        <v>-0.2734886142386714</v>
+      </c>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.4443981932092336</v>
+        <v>-0.373644608260047</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.7156054099771568</v>
+        <v>-0.5521584580017591</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2658888861471784</v>
+        <v>0.1398742150469166</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3228046989908855</v>
+        <v>-0.4402065573145535</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3923048724533288</v>
+        <v>-0.4669630650154674</v>
       </c>
     </row>
     <row r="9">
@@ -813,25 +809,21 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>11.72355829438393</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>7.33701276701207</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>3.491443649522018</v>
-      </c>
+        <v>9.959427971657137</v>
+      </c>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>9.029051169951135</v>
+        <v>7.293852729669228</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>4.898274311740922</v>
+        <v>4.245955169193339</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>4.084442561388456</v>
+        <v>4.016505663118481</v>
       </c>
     </row>
     <row r="10">
@@ -861,7 +853,7 @@
         <v>-2.039388169034136</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.3241274581121285</v>
+        <v>0.3241274581121292</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.4939727185676966</v>
@@ -881,31 +873,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5184987234319489</v>
+        <v>-0.4979570311462776</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.56396238022552</v>
+        <v>-1.4383377761504</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4983502682856761</v>
+        <v>0.5097983614019111</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.805431699542697</v>
+        <v>-3.51923238065786</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.993505246095298</v>
+        <v>-3.795213367879133</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.858113536764559</v>
+        <v>-1.857771349218117</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.625551286533123</v>
+        <v>-1.620117326833963</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.162826175218922</v>
+        <v>-2.288244649484191</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.06146118108287537</v>
+        <v>-0.2736935703821338</v>
       </c>
     </row>
     <row r="12">
@@ -916,31 +908,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.310002158036551</v>
+        <v>2.322086015542872</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.446958581364359</v>
+        <v>0.2380129889459852</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.038458833159618</v>
+        <v>4.45829316962048</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.05628912724943366</v>
+        <v>-0.03777729466906467</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.4303103118777133</v>
+        <v>-0.5520025532843198</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.567589324094354</v>
+        <v>2.585062055626858</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5914926082389395</v>
+        <v>0.6284188012997234</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.2849870540555852</v>
+        <v>-0.3617957009198285</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.862425708071365</v>
+        <v>2.565938110745384</v>
       </c>
     </row>
     <row r="13">
@@ -966,7 +958,7 @@
         <v>-0.6787168974388142</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1078709713456766</v>
+        <v>0.1078709713456768</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.2746698325585555</v>
@@ -988,25 +980,25 @@
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>-0.2744019272019169</v>
+        <v>-0.2648460294781453</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8426651547172723</v>
+        <v>-0.8369793204486901</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.9018573815173639</v>
+        <v>-0.8967392790353145</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4464762937678159</v>
+        <v>-0.4436425725528217</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6849768980328382</v>
+        <v>-0.6953246835248089</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8726419475513627</v>
+        <v>-0.8870854618042439</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.04874811690541213</v>
+        <v>-0.1546645236339654</v>
       </c>
     </row>
     <row r="15">
@@ -1020,22 +1012,22 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>0.1209160224982232</v>
+        <v>0.2036380829103645</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.02909022399291073</v>
+        <v>-0.06242464672447244</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.32793966197672</v>
+        <v>1.369411801891719</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5438433238408411</v>
+        <v>0.5851097242507441</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1095421726248884</v>
+        <v>-0.2128252799298886</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.41517638664808</v>
+        <v>2.103357718524637</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1066,7 @@
         <v>-0.0213806352536706</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.674438263902757</v>
+        <v>1.674438263902756</v>
       </c>
     </row>
     <row r="17">
@@ -1085,31 +1077,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.249307107322306</v>
+        <v>0.2589631443868957</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.289037495578623</v>
+        <v>-2.310969310559198</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.210163727023808</v>
+        <v>0.1872195540788592</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.02098304089776035</v>
+        <v>-0.1777549393304287</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.8727011292479249</v>
+        <v>-0.7469652532205281</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03836798197994863</v>
+        <v>0.0972707422483355</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4281947700017578</v>
+        <v>0.4148280219258476</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.8890020438646765</v>
+        <v>-0.9668898331647792</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5796300916146367</v>
+        <v>0.5486708269740489</v>
       </c>
     </row>
     <row r="18">
@@ -1120,31 +1112,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.291803607183029</v>
+        <v>5.471166135583017</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.182748349949573</v>
+        <v>4.245828759898718</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.880487885775414</v>
+        <v>3.737857784614667</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.094373144583407</v>
+        <v>2.179092022969948</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.910066705456723</v>
+        <v>3.044717006897779</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.534396545869559</v>
+        <v>3.417202900586052</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7383262813498922</v>
+        <v>0.8114152625864098</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.943796459998695</v>
+        <v>3.051572932937855</v>
       </c>
     </row>
     <row r="19">
@@ -1170,7 +1162,7 @@
         <v>0.9112476335836529</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2.434258260472562</v>
+        <v>2.434258260472563</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>2.729955732413759</v>
@@ -1179,7 +1171,7 @@
         <v>-0.03310590718616058</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>2.59271051098464</v>
+        <v>2.592710510984638</v>
       </c>
     </row>
     <row r="20">
@@ -1192,25 +1184,23 @@
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>-0.3254905928371343</v>
+        <v>-0.3589577559658649</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6726305586458065</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.6305105624793071</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.3093197471172181</v>
+        <v>-0.3448851644645831</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04067623391188746</v>
+        <v>0.1213817437356566</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8715779020722012</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.214142231614274</v>
+        <v>0.198058075456484</v>
       </c>
     </row>
     <row r="21">
@@ -1224,22 +1214,20 @@
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>117349.137554544</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>117607.0316554946</v>
-      </c>
+        <v>192732.9559799698</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>118419.1893862509</v>
+        <v>149148.2944669728</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>14.88771926183251</v>
+        <v>12.28718341083628</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.676545909913189</v>
+        <v>4.66966413350058</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>11.3430775811257</v>
+        <v>12.57438098132085</v>
       </c>
     </row>
     <row r="22">
@@ -1269,7 +1257,7 @@
         <v>3.55163549998113</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.8101986651130586</v>
+        <v>0.8101986651130589</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.088252161393057</v>
@@ -1289,31 +1277,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.803055803863407</v>
+        <v>-1.827215905335335</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4498702164408485</v>
+        <v>-0.2444870822898962</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.436749421799019</v>
+        <v>-2.345468084790226</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6268694312292789</v>
+        <v>0.600422909626981</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.492069226966095</v>
+        <v>1.493955757005189</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.6267709346776524</v>
+        <v>-0.6331578659701013</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.1075484175534356</v>
+        <v>0.02117099092107445</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.061213527619685</v>
+        <v>1.095021844060551</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.009667136138891</v>
+        <v>-0.9193210890645601</v>
       </c>
     </row>
     <row r="24">
@@ -1324,31 +1312,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.606301537558849</v>
+        <v>1.468245078032946</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.88504728529812</v>
+        <v>3.861334171501301</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3784068637052561</v>
+        <v>0.4765756345421656</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.374899791177141</v>
+        <v>4.401195452583148</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.187339832751451</v>
+        <v>6.217458766676502</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.117849781937723</v>
+        <v>2.088247955057635</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.310124842101198</v>
+        <v>2.328999877396118</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.155788049920795</v>
+        <v>4.243709298306139</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9039956329097777</v>
+        <v>0.9507772881976557</v>
       </c>
     </row>
     <row r="25">
@@ -1393,30 +1381,28 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C26" s="6" t="n">
-        <v>-0.8801435879507261</v>
-      </c>
+      <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>-0.4556146757646791</v>
+        <v>-0.4420411426502196</v>
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>0.05308098126855645</v>
+        <v>-0.05735453547198963</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4788780716722336</v>
+        <v>0.4751833981082232</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5344283209665379</v>
+        <v>-0.534847403225527</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1235816427544193</v>
+        <v>-0.1294306597000016</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.4438880127841883</v>
+        <v>0.5378060463929228</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.6296259484735892</v>
+        <v>-0.5812293511495278</v>
       </c>
     </row>
     <row r="27">
@@ -1426,28 +1412,28 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C27" s="6" t="n">
-        <v>3.98799218040954</v>
-      </c>
+      <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>7.667076018210674</v>
+        <v>9.960300976677107</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>18.93182789506181</v>
-      </c>
-      <c r="G27" s="6" t="inlineStr"/>
+        <v>14.37257114567421</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>23.75127349670478</v>
+      </c>
       <c r="H27" s="6" t="n">
-        <v>7.97291469828443</v>
+        <v>7.367232545721211</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>4.923319958084427</v>
+        <v>4.597523617927288</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>7.792875580808301</v>
+        <v>8.013123265473379</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.960514125603269</v>
+        <v>2.017536985197958</v>
       </c>
     </row>
     <row r="28">
@@ -1497,31 +1483,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.5047131242203083</v>
+        <v>-0.5930433005895992</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.540887538963514</v>
+        <v>-2.458530554305277</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.760739331904803</v>
+        <v>-2.689162389095517</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.8309583642063701</v>
+        <v>-1.270750015586556</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.222283526904802</v>
+        <v>-2.416317552844087</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.669857014668334</v>
+        <v>-4.261179991411371</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2524060313232419</v>
+        <v>-0.1494573095818603</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.647918385521417</v>
+        <v>-1.749136526755233</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.47785496701762</v>
+        <v>-2.444328623971181</v>
       </c>
     </row>
     <row r="30">
@@ -1532,31 +1518,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.738857662646338</v>
+        <v>5.66828553095808</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.414257828759136</v>
+        <v>1.765690678857545</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.770057839977061</v>
+        <v>0.950874655068584</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.425989748317582</v>
+        <v>5.061186729133767</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.763227278617503</v>
+        <v>2.822118498659857</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2025022458049802</v>
+        <v>0.1038298101372012</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.468830600760231</v>
+        <v>4.291046402186817</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.477566317242701</v>
+        <v>1.346884675882303</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2083318756529521</v>
+        <v>0.19887649840351</v>
       </c>
     </row>
     <row r="31">
@@ -1602,23 +1588,25 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5707122191246873</v>
+        <v>-0.6082696306432419</v>
       </c>
       <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="inlineStr"/>
       <c r="F32" s="6" t="n">
-        <v>-0.4931410670590753</v>
-      </c>
-      <c r="G32" s="6" t="inlineStr"/>
+        <v>-0.661608096681657</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H32" s="6" t="inlineStr"/>
       <c r="I32" s="6" t="n">
-        <v>0.006094290819512451</v>
+        <v>-0.1843517202481998</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.7484486071954072</v>
+        <v>-0.8242068874616887</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9299928566375969</v>
       </c>
     </row>
     <row r="33">
@@ -1629,23 +1617,21 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>11.14025790258249</v>
+        <v>15.70222098580523</v>
       </c>
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="inlineStr"/>
-      <c r="F33" s="6" t="n">
-        <v>10.0918710356843</v>
-      </c>
+      <c r="F33" s="6" t="inlineStr"/>
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="inlineStr"/>
       <c r="I33" s="6" t="n">
-        <v>6.73514636330334</v>
+        <v>6.077031471594935</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.186577940704934</v>
+        <v>2.010610141335922</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.7222297501395223</v>
+        <v>0.9188619554934195</v>
       </c>
     </row>
     <row r="34">
@@ -1675,7 +1661,7 @@
         <v>1.170610609045845</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>3.807726821203783</v>
+        <v>3.807726821203782</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>2.011463384281049</v>
@@ -1684,7 +1670,7 @@
         <v>0.6002839942930123</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>3.529900231077777</v>
+        <v>3.529900231077778</v>
       </c>
     </row>
     <row r="35">
@@ -1695,31 +1681,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
+        <v>0.01732401379016368</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-0.7316139865194524</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>1.288104113857102</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>1.089458869281081</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>0.3387579777099213</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <v>2.443434973212859</v>
+      </c>
+      <c r="I35" s="5" t="n">
+        <v>0.9123359340158201</v>
+      </c>
+      <c r="J35" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D35" s="5" t="n">
-        <v>-0.7283784003811463</v>
-      </c>
-      <c r="E35" s="5" t="n">
-        <v>1.429322201648851</v>
-      </c>
-      <c r="F35" s="5" t="n">
-        <v>1.091053059343828</v>
-      </c>
-      <c r="G35" s="5" t="n">
-        <v>0.3368212329387172</v>
-      </c>
-      <c r="H35" s="5" t="n">
-        <v>2.365694275892004</v>
-      </c>
-      <c r="I35" s="5" t="n">
-        <v>0.9367236412091396</v>
-      </c>
-      <c r="J35" s="5" t="n">
-        <v>-0.008478190118344163</v>
-      </c>
       <c r="K35" s="5" t="n">
-        <v>2.377028368312624</v>
+        <v>2.270302456576865</v>
       </c>
     </row>
     <row r="36">
@@ -1730,31 +1716,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.982405801817261</v>
+        <v>4.005414762202196</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.128938190981001</v>
+        <v>1.129550885202867</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.847559814918347</v>
+        <v>5.474232035872012</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.900657770796649</v>
+        <v>5.054284106631131</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.368710746300828</v>
+        <v>3.151515833389854</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.886625267021055</v>
+        <v>5.991964556931881</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.525612439685642</v>
+        <v>3.44089520448453</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.587991624844127</v>
+        <v>1.682738121982004</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.046328662176559</v>
+        <v>5.129967674639975</v>
       </c>
     </row>
     <row r="37">
@@ -1850,7 +1836,7 @@
         <v>-0.2423624607015584</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2.805447365233102</v>
+        <v>2.805447365233101</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0.5896038286179609</v>
@@ -1879,31 +1865,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.08800422122079993</v>
+        <v>-0.06177016928572139</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.19801178443869</v>
+        <v>-1.163374627762339</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.473212608618422</v>
+        <v>1.294998871795679</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.4529151709907347</v>
+        <v>-0.458502478634307</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.9005413977359754</v>
+        <v>-0.7711569961485446</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>3.597619958567726</v>
+        <v>3.666813883470293</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.06941091613448398</v>
+        <v>-0.03365557728296916</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.6577239808004048</v>
+        <v>-0.7355117466169024</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>2.961179692814226</v>
+        <v>2.940538074287695</v>
       </c>
     </row>
     <row r="42">
@@ -1914,31 +1900,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.242682738692654</v>
+        <v>2.355657858251598</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.6170418323462544</v>
+        <v>0.6700039031403547</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.792605929336553</v>
+        <v>4.798622238955986</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.691621872769859</v>
+        <v>1.851777458459523</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.154109372405456</v>
+        <v>1.070811690706322</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.127587021241666</v>
+        <v>7.300259776026078</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.572425898284496</v>
+        <v>1.521029402371319</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.6034257582959821</v>
+        <v>0.5858119670400538</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.348110176888931</v>
+        <v>5.328070021094899</v>
       </c>
     </row>
     <row r="43">
@@ -1955,7 +1941,7 @@
         <v>-0.3231929508103827</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>3.741094267190982</v>
+        <v>3.741094267190981</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.7906168705233771</v>
@@ -1984,29 +1970,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2953264767701437</v>
-      </c>
-      <c r="D44" s="6" t="inlineStr"/>
+        <v>-0.2945402655892191</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E44" s="6" t="n">
-        <v>0.9451496643216122</v>
+        <v>0.750568483335847</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.5088168705996007</v>
+        <v>-0.5346421640669978</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.7739357957090326</v>
+        <v>-0.6996448299085959</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>2.312383264774342</v>
+        <v>2.282444599244403</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1418833610811935</v>
+        <v>-0.1269220069293423</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.6421339296615617</v>
+        <v>-0.6631425260044441</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>2.277155075654302</v>
+        <v>2.403218034372937</v>
       </c>
     </row>
     <row r="45">
@@ -2017,29 +2005,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>6.816956364367556</v>
-      </c>
-      <c r="D45" s="6" t="inlineStr"/>
+        <v>6.786485967182593</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>2.451609666247218</v>
+      </c>
       <c r="E45" s="6" t="n">
-        <v>16.03929176109499</v>
+        <v>14.26058784163452</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>7.226793492320716</v>
+        <v>6.294855910174177</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>3.57678889261238</v>
+        <v>4.24166321273134</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>22.19814199053238</v>
+        <v>21.20147613199761</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>3.496415929244726</v>
+        <v>3.354488473792149</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.840111549544904</v>
+        <v>1.39382366576407</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>13.70009993424413</v>
+        <v>12.89271785179329</v>
       </c>
     </row>
     <row r="46">
@@ -2060,7 +2050,7 @@
         <v>-0.1212463087999599</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.9367884274593193</v>
+        <v>0.936788427459319</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>0.6731095413906334</v>
@@ -2069,7 +2059,7 @@
         <v>0.2847890900530501</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0.8008217200054154</v>
+        <v>0.8008217200054157</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>0.2791360515845069</v>
@@ -2089,31 +2079,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.210214366896905</v>
+        <v>-1.161182963206972</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.16145531148856</v>
+        <v>-1.234994184427668</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.2642581126155895</v>
+        <v>-0.3034521824706876</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.4997193502352386</v>
+        <v>-0.4307688612369743</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.015649648485675</v>
+        <v>-0.8808082452726604</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.3912129496340537</v>
+        <v>-0.3797308279496605</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.5977174596918539</v>
+        <v>-0.6651604674527152</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.6940548505017946</v>
+        <v>-0.7854167980483568</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.0162710688969854</v>
+        <v>-0.009262157330274025</v>
       </c>
     </row>
     <row r="48">
@@ -2124,31 +2114,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.9271389135864304</v>
+        <v>0.9396207618884146</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.8462227655271403</v>
+        <v>0.9076308317361843</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.217415928500886</v>
+        <v>2.335794041468897</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.026246679179724</v>
+        <v>2.044356149084243</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.554560273559772</v>
+        <v>1.508894551620771</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.846244040082783</v>
+        <v>1.930538775771233</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.136034551893359</v>
+        <v>1.114722812423795</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.9001583457553995</v>
+        <v>0.9027054959559688</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.729261042759588</v>
+        <v>1.772659283387061</v>
       </c>
     </row>
     <row r="49">
@@ -2165,7 +2155,7 @@
         <v>-0.1153591788320422</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.8913025460376149</v>
+        <v>0.8913025460376146</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.5804330288025311</v>
@@ -2174,7 +2164,7 @@
         <v>0.2455781473070483</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.6905612651297116</v>
+        <v>0.6905612651297119</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.252209433677577</v>
@@ -2194,31 +2184,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.7937393110901114</v>
+        <v>-0.7835232763710239</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.737813215294074</v>
+        <v>-0.7921356432707619</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2440025207186543</v>
+        <v>-0.2517925308160816</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3392831146808925</v>
+        <v>-0.3919156587082638</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.6148000985222872</v>
+        <v>-0.5903154750646613</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2800421329135404</v>
+        <v>-0.2802836343704324</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.422214202693225</v>
+        <v>-0.4342239090816339</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.4813177643856247</v>
+        <v>-0.5075925264125838</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.06150079388064623</v>
+        <v>-0.05042645653124313</v>
       </c>
     </row>
     <row r="51">
@@ -2229,31 +2219,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.844738172241122</v>
+        <v>2.352160136458227</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.820865406917195</v>
+        <v>1.910639984888566</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>4.465105669412766</v>
+        <v>4.384216998852772</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>3.652115256504114</v>
+        <v>3.275592947308156</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>2.670573707295769</v>
+        <v>2.26058483628742</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>2.635419728646561</v>
+        <v>3.283210502095646</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>1.629347214100018</v>
+        <v>1.563901164727206</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>1.245767087667321</v>
+        <v>1.285083871146872</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>2.345103282886252</v>
+        <v>2.42274009418061</v>
       </c>
     </row>
     <row r="52">
@@ -2274,7 +2264,7 @@
         <v>0.0321494777275293</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>1.387898270262616</v>
+        <v>1.387898270262615</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>0.9174812925105629</v>
@@ -2303,31 +2293,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.3365591547760729</v>
+        <v>0.3671717937326975</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.4657806298345618</v>
+        <v>-0.4869755654157078</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>0.7422289405625032</v>
+        <v>0.7326969500821252</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.3240988114895507</v>
+        <v>0.2497726612809422</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.09823454458407373</v>
+        <v>-0.1204629261842433</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>1.264420201297942</v>
+        <v>1.241655223613519</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.4954359198848563</v>
+        <v>0.4720955086377774</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-0.1580834171469775</v>
+        <v>-0.1590177192944769</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>1.221437621988351</v>
+        <v>1.229073913584931</v>
       </c>
     </row>
     <row r="54">
@@ -2338,31 +2328,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.548772870854975</v>
+        <v>1.606231263633577</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.5660880052937785</v>
+        <v>0.5013882664974337</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>2.086535504701037</v>
+        <v>2.034523063986398</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1.552831436118734</v>
+        <v>1.519130614693895</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1.022063810025235</v>
+        <v>0.9921712371960484</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>2.497017917302322</v>
+        <v>2.485666037210346</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>1.32441114395738</v>
+        <v>1.356771695483335</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>0.594720356617075</v>
+        <v>0.6333590360448057</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>2.075037248103896</v>
+        <v>2.109160522566563</v>
       </c>
     </row>
     <row r="55">
@@ -2408,31 +2398,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.2297309727587087</v>
+        <v>0.2858458684967111</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.4084957792821344</v>
+        <v>-0.4153193526092069</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.5781465654683897</v>
+        <v>0.5864366235409936</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.2169945788355441</v>
+        <v>0.1403086720859903</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.0745967232233759</v>
+        <v>-0.08383364146650064</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.8265520947998213</v>
+        <v>0.8106577504515844</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.4007700987428938</v>
+        <v>0.3769668569266409</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.1336904475930313</v>
+        <v>-0.1235072897418417</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.9395694900892014</v>
+        <v>1.016606148653925</v>
       </c>
     </row>
     <row r="57">
@@ -2443,31 +2433,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>2.258587563287703</v>
+        <v>2.404356265737824</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.887176880499608</v>
+        <v>0.7287825914619346</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>3.090925616396044</v>
+        <v>2.989531686834448</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>1.726155267859249</v>
+        <v>1.667572931890311</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>1.15210933292088</v>
+        <v>1.043769026531713</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>2.743192848556267</v>
+        <v>2.755352873747372</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>1.574305963787332</v>
+        <v>1.585285489965642</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.6721200890437954</v>
+        <v>0.737279199669602</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>2.371290258740879</v>
+        <v>2.486022943208897</v>
       </c>
     </row>
     <row r="58">
